--- a/target/test-classes/testdata/OpenCartTestData.xlsx
+++ b/target/test-classes/testdata/OpenCartTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a20697e8782652f0/Documents/Suneetha/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunee\eclipse-workspace\March2023POMSeries\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD0B6D3-C5C7-47B0-8719-1529807C7F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68859E0-F132-419D-81BC-49D35234407B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="0" windowWidth="14400" windowHeight="7270" xr2:uid="{26530845-A05C-4F7D-935F-ADF11924C9C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26530845-A05C-4F7D-935F-ADF11924C9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>firstname</t>
     <phoneticPr fontId="1"/>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>sunee@123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9090909024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9090909012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9090909027</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -176,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +199,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +522,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -542,8 +557,8 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>9090909024</v>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -559,8 +574,8 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>9090909012</v>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -576,8 +591,8 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
-        <v>9090909027</v>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
